--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16404.60115034453</v>
+        <v>9946.432846688404</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32029023.4855563</v>
+        <v>32029023.48555631</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9550826.72787652</v>
+        <v>9550826.727876514</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>393.8123863604689</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.6011413903114</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>84.28292421556107</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>291.6115384509264</v>
       </c>
       <c r="X5" t="n">
-        <v>399.7910657140874</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>120.10403501602</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>51.96587863536084</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="E8" t="n">
         <v>424.2958575201043</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>397.9158510059552</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>84.35432797308725</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>173.5591556145158</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>53.04209464026285</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>59.31493126402843</v>
       </c>
       <c r="G13" t="n">
         <v>163.3301761740106</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>147.0498136008198</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U13" t="n">
         <v>275.615660591221</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
-        <v>403.1572050940909</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>33.30086146513878</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.07140607624191</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
         <v>240.8348570146258</v>
       </c>
       <c r="U16" t="n">
-        <v>262.3945234228584</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>186.7247030568337</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.0277220852856</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.07140607624191</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>385.3238927773754</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.122498409159</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8348570146258</v>
+        <v>159.615866224203</v>
       </c>
       <c r="U19" t="n">
-        <v>129.2720250136994</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>374.4268935289279</v>
+        <v>322.3554874526859</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.0714060762419</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.41258657788106</v>
+        <v>49.41258657788105</v>
       </c>
       <c r="T21" t="n">
         <v>125.9672410405524</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>240.8348570146258</v>
       </c>
       <c r="U22" t="n">
-        <v>194.3966698007981</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>48.59416063665982</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>373.6379449502021</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>219.5302271141818</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>126.0809427646072</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>131.5131603608121</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>248.9395529139703</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>328.5107569703947</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.6566641907165</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,13 +2851,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>91.66753013443791</v>
       </c>
       <c r="W29" t="n">
-        <v>105.5188043066317</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>54.37841453763473</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -3003,22 +3003,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>137.6384805602085</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>254.2387885497298</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>401.5266111030789</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>104.8528596352484</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>73.4609303272113</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,19 +3268,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>308.4446333804857</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.6157531058523</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>132.9134719675663</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3483,13 +3483,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>106.0784950958747</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>176.1446634785932</v>
+        <v>361.4649050157285</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>36.3927639024074</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.46093032721086</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>196.2291113321753</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>197.7570681211725</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>92.89120653891781</v>
       </c>
       <c r="F43" t="n">
-        <v>85.1488807209173</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>416.1062051927772</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>401.5266111030789</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09966912296455</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,7 +4194,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>200.2033490604303</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>891.1070171270717</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C2" t="n">
         <v>891.1070171270717</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1528.02936532736</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.02936532736</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4372,10 +4372,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1299.393140827418</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>891.1070171270717</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.7566043178804</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="C4" t="n">
-        <v>288.1948928011053</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="D4" t="n">
-        <v>288.1948928011053</v>
+        <v>513.231333995136</v>
       </c>
       <c r="E4" t="n">
-        <v>288.1948928011053</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>679.1093267936133</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8890703687</v>
+        <v>679.1093267936133</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C5" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D5" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4567,7 +4567,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
         <v>453.9965675465116</v>
@@ -4603,16 +4603,16 @@
         <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1250.914606198081</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>846.059151609114</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="X5" t="n">
-        <v>442.2297923019549</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y5" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2608756884973</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E7" t="n">
         <v>33.94366860160834</v>
@@ -4731,7 +4731,7 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>347.0794944074844</v>
+        <v>561.3982838683355</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.0794944074844</v>
+        <v>561.3982838683355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>890.3927724551322</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C8" t="n">
-        <v>890.3927724551322</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D8" t="n">
         <v>890.3927724551322</v>
@@ -4804,19 +4804,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4843,13 +4843,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>890.3927724551322</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>890.3927724551322</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
         <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>859.7685167902448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>859.7685167902448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4989,25 +4989,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V10" t="n">
-        <v>1131.794921203953</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W10" t="n">
-        <v>859.7685167902448</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X10" t="n">
-        <v>859.7685167902448</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.7685167902448</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>915.4240165935545</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C11" t="n">
-        <v>915.4240165935545</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D11" t="n">
-        <v>915.4240165935545</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E11" t="n">
-        <v>915.4240165935545</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
-        <v>487.5565870027622</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>87.52154197561123</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5044,19 +5044,19 @@
         <v>198.3915302050083</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M11" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P11" t="n">
         <v>1469.044845016103</v>
@@ -5077,16 +5077,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X11" t="n">
-        <v>915.4240165935545</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y11" t="n">
-        <v>915.4240165935545</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>58.54876352795178</v>
+        <v>84.0294895518185</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0670246500364</v>
+        <v>476.1060756401154</v>
       </c>
       <c r="K12" t="n">
-        <v>241.4664870580856</v>
+        <v>591.5055380481646</v>
       </c>
       <c r="L12" t="n">
-        <v>396.6353054438986</v>
+        <v>746.6743564339777</v>
       </c>
       <c r="M12" t="n">
-        <v>577.7099976598042</v>
+        <v>927.7490486498834</v>
       </c>
       <c r="N12" t="n">
-        <v>763.5771981741023</v>
+        <v>1113.616249164181</v>
       </c>
       <c r="O12" t="n">
-        <v>933.6093745396249</v>
+        <v>1283.648425529704</v>
       </c>
       <c r="P12" t="n">
-        <v>1353.662273484528</v>
+        <v>1420.114237364499</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.338018604792</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.2666951209363</v>
+        <v>424.7157093172969</v>
       </c>
       <c r="C13" t="n">
-        <v>711.2666951209363</v>
+        <v>424.7157093172969</v>
       </c>
       <c r="D13" t="n">
-        <v>545.388702322459</v>
+        <v>258.8377165188195</v>
       </c>
       <c r="E13" t="n">
-        <v>375.6306985731962</v>
+        <v>258.8377165188195</v>
       </c>
       <c r="F13" t="n">
         <v>198.9236445349524</v>
@@ -5199,22 +5199,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>162.8821409933428</v>
+        <v>76.30245582865298</v>
       </c>
       <c r="K13" t="n">
-        <v>232.4906405126472</v>
+        <v>145.9109553479574</v>
       </c>
       <c r="L13" t="n">
-        <v>652.5435394575505</v>
+        <v>234.9858693650704</v>
       </c>
       <c r="M13" t="n">
-        <v>1072.596438402454</v>
+        <v>560.3053368018996</v>
       </c>
       <c r="N13" t="n">
-        <v>1164.280309482927</v>
+        <v>980.3582357468028</v>
       </c>
       <c r="O13" t="n">
-        <v>1248.965203890294</v>
+        <v>1400.411134691706</v>
       </c>
       <c r="P13" t="n">
         <v>1472.873691624791</v>
@@ -5229,22 +5229,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T13" t="n">
-        <v>1548.648264827064</v>
+        <v>1453.915897742412</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.248607664214</v>
+        <v>1175.516240579562</v>
       </c>
       <c r="V13" t="n">
-        <v>983.2930995346449</v>
+        <v>888.5607324499924</v>
       </c>
       <c r="W13" t="n">
-        <v>711.2666951209363</v>
+        <v>616.534328036284</v>
       </c>
       <c r="X13" t="n">
-        <v>711.2666951209363</v>
+        <v>616.534328036284</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.2666951209363</v>
+        <v>616.534328036284</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>869.7548429593813</v>
+        <v>1171.371140548757</v>
       </c>
       <c r="C14" t="n">
-        <v>869.7548429593813</v>
+        <v>742.7894662860249</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52534286434</v>
+        <v>742.7894662860249</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>742.7894662860249</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>309.1171874557034</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>198.3915302050083</v>
       </c>
       <c r="K14" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L14" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M14" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N14" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O14" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P14" t="n">
         <v>1469.044845016103</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205425</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1430.484420323773</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1171.371140548757</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1171.371140548757</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1171.371140548757</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>1171.371140548757</v>
       </c>
       <c r="Y14" t="n">
-        <v>869.7548429593813</v>
+        <v>1171.371140548757</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>84.61243668840937</v>
+        <v>84.0294895518185</v>
       </c>
       <c r="J15" t="n">
         <v>476.1060756401154</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5436,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>162.8821409933429</v>
+        <v>76.30245582865298</v>
       </c>
       <c r="K16" t="n">
-        <v>507.2490950837829</v>
+        <v>145.9109553479574</v>
       </c>
       <c r="L16" t="n">
-        <v>782.6184676270011</v>
+        <v>565.9638542928607</v>
       </c>
       <c r="M16" t="n">
-        <v>876.5354752335243</v>
+        <v>659.8808618993838</v>
       </c>
       <c r="N16" t="n">
-        <v>968.2193463139978</v>
+        <v>1079.933760844287</v>
       </c>
       <c r="O16" t="n">
-        <v>1052.904240721364</v>
+        <v>1499.98665978919</v>
       </c>
       <c r="P16" t="n">
-        <v>1472.873691624791</v>
+        <v>1641.066466489124</v>
       </c>
       <c r="Q16" t="n">
         <v>1691.235784882888</v>
@@ -5463,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.915897742412</v>
+        <v>1305.327804142842</v>
       </c>
       <c r="U16" t="n">
-        <v>1188.870924588009</v>
+        <v>1026.928146979993</v>
       </c>
       <c r="V16" t="n">
-        <v>901.9154164584395</v>
+        <v>739.9726388504232</v>
       </c>
       <c r="W16" t="n">
-        <v>629.8890120447311</v>
+        <v>467.9462344367147</v>
       </c>
       <c r="X16" t="n">
-        <v>629.8890120447311</v>
+        <v>222.5544797701272</v>
       </c>
       <c r="Y16" t="n">
-        <v>402.4693413588393</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.52534286434</v>
+        <v>808.7541904825832</v>
       </c>
       <c r="C17" t="n">
-        <v>462.52534286434</v>
+        <v>808.7541904825832</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>808.7541904825832</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>433.9787136287594</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="H17" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="I17" t="n">
-        <v>85.02847154687571</v>
+        <v>85.02847154687561</v>
       </c>
       <c r="J17" t="n">
-        <v>198.3915302050085</v>
+        <v>198.3915302050083</v>
       </c>
       <c r="K17" t="n">
-        <v>368.2933687921388</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L17" t="n">
         <v>579.0716233077374</v>
@@ -5530,7 +5530,7 @@
         <v>1051.92942843149</v>
       </c>
       <c r="O17" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P17" t="n">
         <v>1469.044845016103</v>
@@ -5539,28 +5539,28 @@
         <v>1613.28184409613</v>
       </c>
       <c r="R17" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080418</v>
       </c>
       <c r="S17" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1430.484420323773</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1171.371140548757</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>808.7541904825832</v>
       </c>
       <c r="W17" t="n">
-        <v>1307.967376769937</v>
+        <v>808.7541904825832</v>
       </c>
       <c r="X17" t="n">
-        <v>888.8249133492478</v>
+        <v>808.7541904825832</v>
       </c>
       <c r="Y17" t="n">
-        <v>888.8249133492478</v>
+        <v>808.7541904825832</v>
       </c>
     </row>
     <row r="18">
@@ -5576,34 +5576,34 @@
         <v>425.8876954122217</v>
       </c>
       <c r="D18" t="n">
-        <v>330.7974065587749</v>
+        <v>330.797406558775</v>
       </c>
       <c r="E18" t="n">
-        <v>236.6769918857286</v>
+        <v>236.6769918857287</v>
       </c>
       <c r="F18" t="n">
         <v>153.2931535018903</v>
       </c>
       <c r="G18" t="n">
-        <v>68.63721874747718</v>
+        <v>68.63721874747719</v>
       </c>
       <c r="H18" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="I18" t="n">
         <v>84.61243668840937</v>
       </c>
       <c r="J18" t="n">
-        <v>152.130697810494</v>
+        <v>476.1060756401154</v>
       </c>
       <c r="K18" t="n">
-        <v>267.5301602185432</v>
+        <v>591.5055380481646</v>
       </c>
       <c r="L18" t="n">
-        <v>422.6989786043561</v>
+        <v>746.6743564339777</v>
       </c>
       <c r="M18" t="n">
-        <v>693.5633502192782</v>
+        <v>927.7490486498834</v>
       </c>
       <c r="N18" t="n">
         <v>1113.616249164181</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>345.1178927501138</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="C19" t="n">
-        <v>345.1178927501138</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="D19" t="n">
-        <v>345.1178927501138</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="E19" t="n">
-        <v>345.1178927501138</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="F19" t="n">
-        <v>168.41083871187</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="G19" t="n">
-        <v>168.41083871187</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="I19" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="J19" t="n">
-        <v>162.8821409933428</v>
+        <v>76.302455828653</v>
       </c>
       <c r="K19" t="n">
-        <v>232.4906405126472</v>
+        <v>145.9109553479574</v>
       </c>
       <c r="L19" t="n">
-        <v>652.5435394575505</v>
+        <v>308.4452127213288</v>
       </c>
       <c r="M19" t="n">
-        <v>746.4605470640737</v>
+        <v>728.4981116662321</v>
       </c>
       <c r="N19" t="n">
-        <v>1166.513446008977</v>
+        <v>1148.551010611135</v>
       </c>
       <c r="O19" t="n">
-        <v>1251.198340416344</v>
+        <v>1568.603909556039</v>
       </c>
       <c r="P19" t="n">
-        <v>1472.873691624791</v>
+        <v>1641.066466489124</v>
       </c>
       <c r="Q19" t="n">
         <v>1691.235784882888</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080418</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080418</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.915897742412</v>
+        <v>1535.955282379202</v>
       </c>
       <c r="U19" t="n">
-        <v>1323.338094698271</v>
+        <v>1257.555625216353</v>
       </c>
       <c r="V19" t="n">
-        <v>1036.382586568701</v>
+        <v>970.6001170867833</v>
       </c>
       <c r="W19" t="n">
-        <v>764.3561821549927</v>
+        <v>698.5737126730747</v>
       </c>
       <c r="X19" t="n">
-        <v>764.3561821549927</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.9365114691009</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="C20" t="n">
         <v>1318.974446717864</v>
       </c>
       <c r="D20" t="n">
-        <v>890.3927724551322</v>
+        <v>890.3927724551323</v>
       </c>
       <c r="E20" t="n">
         <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="I20" t="n">
-        <v>85.02847154687561</v>
+        <v>85.02847154687564</v>
       </c>
       <c r="J20" t="n">
-        <v>198.3915302050083</v>
+        <v>198.3915302050084</v>
       </c>
       <c r="K20" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921387</v>
       </c>
       <c r="L20" t="n">
-        <v>579.0716233077371</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M20" t="n">
         <v>813.6030440780562</v>
@@ -5776,28 +5776,28 @@
         <v>1613.28184409613</v>
       </c>
       <c r="R20" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080418</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205426</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>425.8876954122217</v>
       </c>
       <c r="D21" t="n">
-        <v>330.7974065587749</v>
+        <v>330.797406558775</v>
       </c>
       <c r="E21" t="n">
-        <v>236.6769918857286</v>
+        <v>236.6769918857287</v>
       </c>
       <c r="F21" t="n">
         <v>153.2931535018903</v>
       </c>
       <c r="G21" t="n">
-        <v>68.63721874747718</v>
+        <v>68.63721874747719</v>
       </c>
       <c r="H21" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="I21" t="n">
-        <v>84.61243668840937</v>
+        <v>84.61243668840939</v>
       </c>
       <c r="J21" t="n">
-        <v>476.6890227767063</v>
+        <v>476.1060756401152</v>
       </c>
       <c r="K21" t="n">
-        <v>708.6783161425049</v>
+        <v>591.5055380481643</v>
       </c>
       <c r="L21" t="n">
-        <v>863.8471345283177</v>
+        <v>746.6743564339774</v>
       </c>
       <c r="M21" t="n">
-        <v>1044.921826744223</v>
+        <v>927.7490486498832</v>
       </c>
       <c r="N21" t="n">
-        <v>1230.789027258521</v>
+        <v>1113.616249164181</v>
       </c>
       <c r="O21" t="n">
-        <v>1400.821203624044</v>
+        <v>1283.648425529704</v>
       </c>
       <c r="P21" t="n">
-        <v>1537.287015458839</v>
+        <v>1420.114237364499</v>
       </c>
       <c r="Q21" t="n">
-        <v>1628.510796699132</v>
+        <v>1511.338018604792</v>
       </c>
       <c r="R21" t="n">
         <v>1672.881462148471</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>375.6306985731962</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>375.6306985731962</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>375.6306985731962</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>375.6306985731962</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>198.9236445349524</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="H22" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="I22" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160835</v>
       </c>
       <c r="J22" t="n">
-        <v>76.30245582865297</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K22" t="n">
-        <v>145.9109553479573</v>
+        <v>232.4906405126473</v>
       </c>
       <c r="L22" t="n">
-        <v>234.9858693650704</v>
+        <v>643.8132172588655</v>
       </c>
       <c r="M22" t="n">
-        <v>655.0387683099735</v>
+        <v>1063.866116203769</v>
       </c>
       <c r="N22" t="n">
-        <v>746.7226393904472</v>
+        <v>1483.919015148672</v>
       </c>
       <c r="O22" t="n">
-        <v>1052.904240721364</v>
+        <v>1568.603909556039</v>
       </c>
       <c r="P22" t="n">
-        <v>1472.873691624791</v>
+        <v>1641.066466489124</v>
       </c>
       <c r="Q22" t="n">
         <v>1691.235784882888</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080418</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.183430080418</v>
       </c>
       <c r="T22" t="n">
         <v>1453.915897742412</v>
       </c>
       <c r="U22" t="n">
-        <v>1257.555625216353</v>
+        <v>1175.516240579562</v>
       </c>
       <c r="V22" t="n">
-        <v>970.6001170867833</v>
+        <v>888.5607324499927</v>
       </c>
       <c r="W22" t="n">
-        <v>698.5737126730747</v>
+        <v>616.5343280362843</v>
       </c>
       <c r="X22" t="n">
-        <v>453.1819580064872</v>
+        <v>567.4493172921834</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.7622873205955</v>
+        <v>567.4493172921834</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1106.599419841793</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="C23" t="n">
-        <v>668.4569470252168</v>
+        <v>1260.031093301298</v>
       </c>
       <c r="D23" t="n">
-        <v>668.4569470252168</v>
+        <v>824.1213084757424</v>
       </c>
       <c r="E23" t="n">
-        <v>668.4569470252168</v>
+        <v>824.1213084757424</v>
       </c>
       <c r="F23" t="n">
-        <v>668.4569470252168</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>268.9542557046939</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435808</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027048</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y23" t="n">
-        <v>1532.898990326701</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895474</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.2333208532364</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C25" t="n">
-        <v>393.6716093364613</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364613</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
         <v>47.20655154895474</v>
@@ -6147,25 +6147,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>767.3301446246915</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M25" t="n">
-        <v>897.9345369632209</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1467.692251924755</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2232.97308980672</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2232.97308980672</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.0519395722235</v>
+        <v>922.7931199597051</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>298.66064540145</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C26" t="n">
-        <v>47.20655154895474</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895474</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1957.244257596361</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1552.388803007394</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X26" t="n">
-        <v>1133.246339586704</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y26" t="n">
-        <v>724.9602158863578</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.655226289377</v>
+        <v>717.0469809559645</v>
       </c>
       <c r="C28" t="n">
-        <v>299.093514772602</v>
+        <v>717.0469809559645</v>
       </c>
       <c r="D28" t="n">
-        <v>133.2155219741246</v>
+        <v>717.0469809559645</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>547.2889772067017</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>370.5819231684579</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
@@ -6387,22 +6387,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545215</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L28" t="n">
-        <v>688.1212571728195</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M28" t="n">
-        <v>818.7256495113489</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N28" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6426,10 +6426,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E29" t="n">
         <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1889.485634438363</v>
+        <v>1756.425799870899</v>
       </c>
       <c r="W29" t="n">
-        <v>1782.900983623584</v>
+        <v>1756.425799870899</v>
       </c>
       <c r="X29" t="n">
-        <v>1782.900983623584</v>
+        <v>1337.28333645021</v>
       </c>
       <c r="Y29" t="n">
-        <v>1782.900983623584</v>
+        <v>1337.28333645021</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>977.4615289265248</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>804.8998174097497</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>639.0218246112725</v>
       </c>
       <c r="E31" t="n">
         <v>584.0941331591162</v>
@@ -6618,28 +6618,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>326.7831174369941</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M31" t="n">
-        <v>910.964192855309</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N31" t="n">
-        <v>1480.721907816843</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O31" t="n">
-        <v>2018.157038390386</v>
+        <v>1925.918495046426</v>
       </c>
       <c r="P31" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1937.514407000715</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1650.558898871145</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W31" t="n">
-        <v>1650.558898871145</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>1169.280147645512</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>703.5160999904168</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C32" t="n">
-        <v>703.5160999904168</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
-        <v>703.5160999904168</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>703.5160999904168</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V32" t="n">
-        <v>1957.244257596361</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W32" t="n">
-        <v>1957.244257596361</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X32" t="n">
-        <v>1538.101794175671</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y32" t="n">
-        <v>1129.815670475325</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6785,19 +6785,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L34" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1388.483364472883</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2254.415598018193</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2012.168373921599</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.877393424667</v>
+        <v>1733.781741970342</v>
       </c>
       <c r="V34" t="n">
-        <v>1756.921885295098</v>
+        <v>1446.826233840773</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1174.799829427064</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>929.4080747604767</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>701.9884040745849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>758.269478607342</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895473</v>
@@ -6934,25 +6934,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6973,16 +6973,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="X35" t="n">
-        <v>2360.327577447737</v>
+        <v>1592.855172792596</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1184.56904909225</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,7 +7007,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H36" t="n">
         <v>47.20655154895473</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>888.10816919885</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C37" t="n">
-        <v>888.10816919885</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895473</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1019.75145377609</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W37" t="n">
-        <v>1552.738213270316</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X37" t="n">
-        <v>1307.346458603729</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y37" t="n">
-        <v>1079.926787917837</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2182.403674944107</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C38" t="n">
-        <v>1744.26120212753</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.351417301975</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2182.403674944107</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>959.2942050525578</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>786.7324935357827</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>620.8545007373054</v>
       </c>
       <c r="E40" t="n">
         <v>584.0941331591162</v>
@@ -7329,7 +7329,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
@@ -7338,19 +7338,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092375</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2286.124617521261</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.877393424667</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>2043.877393424667</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V40" t="n">
-        <v>1756.921885295098</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>1151.112823771545</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>246.9611658127653</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
@@ -7414,19 +7414,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.639935903077</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1333.78448131411</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>914.642017893421</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y41" t="n">
-        <v>914.642017893421</v>
+        <v>673.2607362976731</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7548,16 +7548,16 @@
         <v>471.6552262893761</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0935147726011</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D43" t="n">
-        <v>133.2155219741237</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E43" t="n">
-        <v>133.2155219741237</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
         <v>47.20655154895473</v>
@@ -7575,19 +7575,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092379</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>867.018541044</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>867.018541044</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>1698.173566117875</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W44" t="n">
-        <v>1293.318111528908</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X44" t="n">
-        <v>1293.318111528908</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y44" t="n">
-        <v>1293.318111528908</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043086</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1088.893190137621</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>916.3314786208463</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>750.453485822369</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>580.6954820731062</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>403.9884280348624</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>239.2472476473808</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>106.9031870266967</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7812,19 +7812,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1399.801244395024</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1493.041577792575</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.711808856609</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.711808856609</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8379,10 +8379,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K8" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>25.73810709481488</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>286.4516031415235</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>67.12319583835438</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>334.3211968967578</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>329.430193271091</v>
+        <v>233.7398584144505</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>331.6858867317472</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>338.7555601389261</v>
       </c>
       <c r="P13" t="n">
-        <v>152.9756876781944</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>25.73810709481488</v>
       </c>
       <c r="J15" t="n">
-        <v>327.2478563935571</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>188.1762207334395</v>
+        <v>334.3211968967578</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>331.6858867317471</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>338.7555601389261</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>69.31035329984661</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.247856393557</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>90.69664585759216</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>236.551210535965</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>334.3211968967578</v>
+        <v>74.20135692551349</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>329.4301932710911</v>
       </c>
       <c r="N19" t="n">
-        <v>331.6858867317472</v>
+        <v>331.6858867317474</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>338.7555601389261</v>
       </c>
       <c r="P19" t="n">
-        <v>150.719994217538</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.2478563935567</v>
       </c>
       <c r="K21" t="n">
-        <v>117.7675060179287</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>325.5026896253588</v>
       </c>
       <c r="M22" t="n">
-        <v>329.430193271091</v>
+        <v>329.4301932710911</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>331.6858867317474</v>
       </c>
       <c r="O22" t="n">
-        <v>223.734047397526</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>80.00897722411317</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>175.7179764032064</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>80.00897722411264</v>
       </c>
       <c r="Q31" t="n">
-        <v>156.730423204287</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>69.27619576520573</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>152.9002451589008</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>264.6463123855401</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042864</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>458.1582657371569</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>141.4680432173448</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>48.31678347635085</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -22612,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>21.13865242601349</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.29929114148581</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>83.77749949620905</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22789,13 +22789,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22843,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>109.1953615921506</v>
       </c>
       <c r="X5" t="n">
-        <v>15.15997307239496</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22944,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.73205938558729</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.9719584845608</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23023,10 +23023,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>57.123793448372</v>
       </c>
       <c r="E8" t="n">
         <v>5.14113987318342</v>
@@ -23083,10 +23083,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>17.03518778052722</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23184,22 +23184,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>79.86488489740528</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,10 +23229,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>51.58631836451698</v>
       </c>
     </row>
     <row r="11">
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H11" t="n">
-        <v>219.3796890252912</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.5221469772661</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>30.48347115963526</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>115.6250522338329</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T13" t="n">
-        <v>93.78504341380595</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
-        <v>28.39348188320901</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>390.2878938297455</v>
       </c>
       <c r="G14" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>272.4217836655541</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.07140607624191</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23664,7 +23664,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.3301761740106</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>13.22113716836257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.42077092219913</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>58.40927530800212</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>272.4217836655541</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.07140607624191</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>15.48300726570159</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23901,13 +23901,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.3301761740106</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.122498409159</v>
       </c>
       <c r="I19" t="n">
         <v>69.57375468953282</v>
@@ -23943,10 +23943,10 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>81.21899079042274</v>
       </c>
       <c r="U19" t="n">
-        <v>146.3436355775215</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>59.33415455948301</v>
+        <v>111.405560635725</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>7.254829457195513</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>5.141139873183363</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.07140607624191</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.9606135828359</v>
@@ -24138,16 +24138,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>133.122498409159</v>
       </c>
       <c r="I22" t="n">
-        <v>69.57375468953282</v>
+        <v>69.57375468953281</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>81.21899079042289</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>194.3436764832618</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>49.95081034468222</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>47.49410882734685</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.90133034620062</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.63231361822073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>184.8214951744406</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>95.07799832448967</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>36.4371043928903</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>267.3232504310738</v>
       </c>
       <c r="W29" t="n">
-        <v>295.2880957364453</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>113.6820091741354</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>169.3499667451545</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>13.42442768340351</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>38.1294134755594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>202.1418353045331</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>125.3164147079252</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25213,16 +25213,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>254.5875093574908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>31.30574090292623</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>136.859342024047</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>228.0585989847499</v>
+        <v>42.73835744761459</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>131.6676598093627</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>69.52134278359696</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>225.8074634478834</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>236.0039799672385</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25642,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>75.1692171728523</v>
       </c>
       <c r="F43" t="n">
-        <v>89.79110277694403</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>15.44448178452274</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>13.42442768340351</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.364664575149881</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>83.88260398784357</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361583.2504242004</v>
+        <v>361583.2504242005</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>361583.2504242004</v>
+        <v>361583.2504242005</v>
       </c>
     </row>
     <row r="5">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>416104.1961915091</v>
+        <v>416104.196191509</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>416104.196191509</v>
+        <v>416104.1961915091</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416104.1961915091</v>
+        <v>416104.196191509</v>
       </c>
     </row>
   </sheetData>
@@ -26334,25 +26334,25 @@
         <v>110689.19336475</v>
       </c>
       <c r="I2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="K2" t="n">
+        <v>141567.8141707356</v>
+      </c>
+      <c r="L2" t="n">
+        <v>141567.8141707356</v>
+      </c>
+      <c r="M2" t="n">
         <v>141567.8141707357</v>
-      </c>
-      <c r="L2" t="n">
-        <v>141567.8141707357</v>
-      </c>
-      <c r="M2" t="n">
-        <v>141567.8141707356</v>
       </c>
       <c r="N2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="O2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="P2" t="n">
         <v>141567.8141707356</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142770.4451885123</v>
+        <v>142770.4451885122</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26435,31 +26435,31 @@
         <v>9523.894035659559</v>
       </c>
       <c r="H4" t="n">
-        <v>9523.894035659563</v>
+        <v>9523.894035659556</v>
       </c>
       <c r="I4" t="n">
         <v>7598.280184877576</v>
       </c>
       <c r="J4" t="n">
+        <v>7598.280184877575</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7598.280184877574</v>
+      </c>
+      <c r="L4" t="n">
         <v>7598.280184877573</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>7598.280184877573</v>
+      </c>
+      <c r="N4" t="n">
         <v>7598.280184877576</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
+        <v>7598.280184877573</v>
+      </c>
+      <c r="P4" t="n">
         <v>7598.280184877576</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7598.280184877575</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7598.280184877573</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7598.280184877574</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7598.280184877579</v>
       </c>
     </row>
     <row r="5">
@@ -26496,22 +26496,22 @@
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142859.0865495965</v>
+        <v>-143598.4431615122</v>
       </c>
       <c r="C6" t="n">
-        <v>-667.7858898865597</v>
+        <v>-1407.142501802213</v>
       </c>
       <c r="D6" t="n">
-        <v>-667.7858898865743</v>
+        <v>-1407.142501802213</v>
       </c>
       <c r="E6" t="n">
-        <v>-201572.6343194694</v>
+        <v>-202298.0626560579</v>
       </c>
       <c r="F6" t="n">
-        <v>68051.96201142741</v>
+        <v>67326.53367483889</v>
       </c>
       <c r="G6" t="n">
-        <v>68051.96201142743</v>
+        <v>67326.53367483891</v>
       </c>
       <c r="H6" t="n">
-        <v>68051.96201142741</v>
+        <v>67326.53367483889</v>
       </c>
       <c r="I6" t="n">
-        <v>-54851.99241229207</v>
+        <v>-55405.87285551395</v>
       </c>
       <c r="J6" t="n">
-        <v>-23096.01256877001</v>
+        <v>-23649.89301199194</v>
       </c>
       <c r="K6" t="n">
-        <v>87918.45277622029</v>
+        <v>87364.57233299826</v>
       </c>
       <c r="L6" t="n">
-        <v>87918.45277622026</v>
+        <v>87364.57233299826</v>
       </c>
       <c r="M6" t="n">
-        <v>87918.45277622022</v>
+        <v>87364.57233299834</v>
       </c>
       <c r="N6" t="n">
-        <v>87918.45277622019</v>
+        <v>87364.57233299824</v>
       </c>
       <c r="O6" t="n">
-        <v>87918.45277622016</v>
+        <v>87364.57233299826</v>
       </c>
       <c r="P6" t="n">
-        <v>87918.45277622023</v>
+        <v>87364.57233299826</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>335.6031734147081</v>
       </c>
       <c r="H3" t="n">
-        <v>335.6031734147081</v>
+        <v>335.6031734147082</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26773,10 +26773,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26804,10 +26804,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="H4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26816,22 +26816,22 @@
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>131.0987546785131</v>
+        <v>131.098754678513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         <v>13.81706934566182</v>
       </c>
       <c r="I20" t="n">
-        <v>52.01343253495693</v>
+        <v>52.01343253495694</v>
       </c>
       <c r="J20" t="n">
-        <v>114.5081400587199</v>
+        <v>114.50814005872</v>
       </c>
       <c r="K20" t="n">
         <v>171.6180187748791</v>
@@ -32481,10 +32481,10 @@
         <v>212.9073277935339</v>
       </c>
       <c r="M20" t="n">
-        <v>236.900425020524</v>
+        <v>236.9004250205241</v>
       </c>
       <c r="N20" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691253</v>
       </c>
       <c r="O20" t="n">
         <v>227.318026873075</v>
@@ -32496,13 +32496,13 @@
         <v>145.6939384646736</v>
       </c>
       <c r="R20" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180569</v>
       </c>
       <c r="S20" t="n">
-        <v>30.74394900175945</v>
+        <v>30.74394900175946</v>
       </c>
       <c r="T20" t="n">
-        <v>5.905941272855816</v>
+        <v>5.905941272855818</v>
       </c>
       <c r="U20" t="n">
         <v>0.1079326788871422</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7218634296089947</v>
+        <v>0.721863429608995</v>
       </c>
       <c r="H21" t="n">
-        <v>6.971681017539503</v>
+        <v>6.971681017539505</v>
       </c>
       <c r="I21" t="n">
-        <v>24.85363123873074</v>
+        <v>24.85363123873075</v>
       </c>
       <c r="J21" t="n">
-        <v>68.20026375968139</v>
+        <v>68.20026375968142</v>
       </c>
       <c r="K21" t="n">
-        <v>116.565113543484</v>
+        <v>116.5651135434841</v>
       </c>
       <c r="L21" t="n">
         <v>156.7361801876899</v>
@@ -32563,28 +32563,28 @@
         <v>182.9037295110159</v>
       </c>
       <c r="N21" t="n">
-        <v>187.7446469841394</v>
+        <v>187.7446469841395</v>
       </c>
       <c r="O21" t="n">
-        <v>171.7496730964874</v>
+        <v>171.7496730964875</v>
       </c>
       <c r="P21" t="n">
         <v>137.8442543785808</v>
       </c>
       <c r="Q21" t="n">
-        <v>92.14523357605344</v>
+        <v>92.14523357605347</v>
       </c>
       <c r="R21" t="n">
-        <v>44.81885398923217</v>
+        <v>44.81885398923218</v>
       </c>
       <c r="S21" t="n">
         <v>13.4082965982197</v>
       </c>
       <c r="T21" t="n">
-        <v>2.909616192152043</v>
+        <v>2.909616192152044</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04749101510585493</v>
+        <v>0.04749101510585495</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6051860504199653</v>
+        <v>0.6051860504199655</v>
       </c>
       <c r="H22" t="n">
-        <v>5.380654157370241</v>
+        <v>5.380654157370243</v>
       </c>
       <c r="I22" t="n">
         <v>18.1995950435386</v>
       </c>
       <c r="J22" t="n">
-        <v>42.78665376469154</v>
+        <v>42.78665376469156</v>
       </c>
       <c r="K22" t="n">
-        <v>70.31161567606505</v>
+        <v>70.31161567606507</v>
       </c>
       <c r="L22" t="n">
-        <v>89.97466062334649</v>
+        <v>89.97466062334652</v>
       </c>
       <c r="M22" t="n">
-        <v>94.86566424901328</v>
+        <v>94.86566424901331</v>
       </c>
       <c r="N22" t="n">
-        <v>92.60997078835712</v>
+        <v>92.60997078835715</v>
       </c>
       <c r="O22" t="n">
-        <v>85.54029738117841</v>
+        <v>85.54029738117843</v>
       </c>
       <c r="P22" t="n">
-        <v>73.19450195261105</v>
+        <v>73.19450195261108</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.67607918562091</v>
+        <v>50.67607918562094</v>
       </c>
       <c r="R22" t="n">
-        <v>27.21136550342861</v>
+        <v>27.21136550342862</v>
       </c>
       <c r="S22" t="n">
-        <v>10.54674235140975</v>
+        <v>10.54674235140976</v>
       </c>
       <c r="T22" t="n">
-        <v>2.585794942703488</v>
+        <v>2.585794942703489</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03301014820472542</v>
+        <v>0.03301014820472543</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35099,10 +35099,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K8" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P9" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>358.9284720888816</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35421,7 +35421,7 @@
         <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691254</v>
       </c>
       <c r="O11" t="n">
         <v>227.318026873075</v>
@@ -35433,7 +35433,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24.85363123873074</v>
+        <v>50.59173833354562</v>
       </c>
       <c r="J12" t="n">
-        <v>68.20026375968141</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K12" t="n">
         <v>116.5651135434841</v>
@@ -35497,19 +35497,19 @@
         <v>156.7361801876899</v>
       </c>
       <c r="M12" t="n">
-        <v>182.9037295110159</v>
+        <v>182.903729511016</v>
       </c>
       <c r="N12" t="n">
         <v>187.7446469841394</v>
       </c>
       <c r="O12" t="n">
-        <v>171.7496730964875</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>137.8442543785809</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2684294144078</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R12" t="n">
         <v>163.1751954986662</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>130.2408812037722</v>
+        <v>42.78665376469155</v>
       </c>
       <c r="K13" t="n">
-        <v>70.31161567606506</v>
+        <v>70.31161567606507</v>
       </c>
       <c r="L13" t="n">
+        <v>89.97466062334649</v>
+      </c>
+      <c r="M13" t="n">
+        <v>328.6055226634638</v>
+      </c>
+      <c r="N13" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M13" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N13" t="n">
-        <v>92.60997078835703</v>
-      </c>
       <c r="O13" t="n">
-        <v>85.54029738117833</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P13" t="n">
-        <v>226.1701896308055</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q13" t="n">
         <v>220.5677709677748</v>
@@ -35658,10 +35658,10 @@
         <v>236.900425020524</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O14" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730753</v>
       </c>
       <c r="P14" t="n">
         <v>194.0106767477459</v>
@@ -35670,7 +35670,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>51.18057382505155</v>
+        <v>50.59173833354562</v>
       </c>
       <c r="J15" t="n">
-        <v>395.4481201532384</v>
+        <v>396.0369556447444</v>
       </c>
       <c r="K15" t="n">
         <v>116.5651135434841</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>130.2408812037722</v>
+        <v>42.78665376469155</v>
       </c>
       <c r="K16" t="n">
-        <v>347.8454081721617</v>
+        <v>70.31161567606507</v>
       </c>
       <c r="L16" t="n">
-        <v>278.150881356786</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M16" t="n">
         <v>94.86566424901332</v>
       </c>
       <c r="N16" t="n">
-        <v>92.60997078835715</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O16" t="n">
-        <v>85.54029738117845</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P16" t="n">
-        <v>424.2115665691178</v>
+        <v>142.5048552524577</v>
       </c>
       <c r="Q16" t="n">
-        <v>220.5677709677748</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R16" t="n">
         <v>6.007722421746784</v>
@@ -35883,13 +35883,13 @@
         <v>51.60081105582554</v>
       </c>
       <c r="J17" t="n">
-        <v>114.50814005872</v>
+        <v>114.5081400587199</v>
       </c>
       <c r="K17" t="n">
         <v>171.6180187748791</v>
       </c>
       <c r="L17" t="n">
-        <v>212.9073277935339</v>
+        <v>212.907327793534</v>
       </c>
       <c r="M17" t="n">
         <v>236.9004250205242</v>
@@ -35898,7 +35898,7 @@
         <v>240.7337215691252</v>
       </c>
       <c r="O17" t="n">
-        <v>227.3180268730748</v>
+        <v>227.318026873075</v>
       </c>
       <c r="P17" t="n">
         <v>194.0106767477459</v>
@@ -35962,7 +35962,7 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J18" t="n">
-        <v>68.20026375968141</v>
+        <v>395.4481201532384</v>
       </c>
       <c r="K18" t="n">
         <v>116.5651135434841</v>
@@ -35971,10 +35971,10 @@
         <v>156.7361801876899</v>
       </c>
       <c r="M18" t="n">
-        <v>273.6003753686081</v>
+        <v>182.903729511016</v>
       </c>
       <c r="N18" t="n">
-        <v>424.2958575201044</v>
+        <v>187.7446469841394</v>
       </c>
       <c r="O18" t="n">
         <v>171.7496730964874</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>130.2408812037722</v>
+        <v>42.78665376469156</v>
       </c>
       <c r="K19" t="n">
         <v>70.31161567606506</v>
       </c>
       <c r="L19" t="n">
+        <v>164.17601754886</v>
+      </c>
+      <c r="M19" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M19" t="n">
-        <v>94.86566424901332</v>
       </c>
       <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O19" t="n">
-        <v>85.54029738117833</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P19" t="n">
-        <v>223.9144961701491</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q19" t="n">
-        <v>220.5677709677748</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R19" t="n">
         <v>6.007722421746784</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>51.60081105582553</v>
+        <v>51.60081105582555</v>
       </c>
       <c r="J20" t="n">
-        <v>114.5081400587199</v>
+        <v>114.50814005872</v>
       </c>
       <c r="K20" t="n">
         <v>171.6180187748791</v>
       </c>
       <c r="L20" t="n">
-        <v>212.9073277935339</v>
+        <v>212.907327793534</v>
       </c>
       <c r="M20" t="n">
-        <v>236.9004250205244</v>
+        <v>236.9004250205242</v>
       </c>
       <c r="N20" t="n">
         <v>240.7337215691252</v>
@@ -36141,7 +36141,7 @@
         <v>194.0106767477459</v>
       </c>
       <c r="Q20" t="n">
-        <v>145.6939384646735</v>
+        <v>145.6939384646737</v>
       </c>
       <c r="R20" t="n">
         <v>84.74907675180566</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>51.18057382505155</v>
+        <v>51.18057382505156</v>
       </c>
       <c r="J21" t="n">
-        <v>396.0369556447444</v>
+        <v>395.4481201532382</v>
       </c>
       <c r="K21" t="n">
-        <v>234.3326195614127</v>
+        <v>116.5651135434841</v>
       </c>
       <c r="L21" t="n">
-        <v>156.7361801876898</v>
+        <v>156.7361801876899</v>
       </c>
       <c r="M21" t="n">
-        <v>182.9037295110159</v>
+        <v>182.903729511016</v>
       </c>
       <c r="N21" t="n">
-        <v>187.7446469841393</v>
+        <v>187.7446469841394</v>
       </c>
       <c r="O21" t="n">
         <v>171.7496730964874</v>
       </c>
       <c r="P21" t="n">
-        <v>137.8442543785807</v>
+        <v>137.8442543785809</v>
       </c>
       <c r="Q21" t="n">
         <v>92.14523357605344</v>
       </c>
       <c r="R21" t="n">
-        <v>44.81885398923214</v>
+        <v>163.1751954986664</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.78665376469154</v>
+        <v>130.2408812037722</v>
       </c>
       <c r="K22" t="n">
-        <v>70.31161567606503</v>
+        <v>70.31161567606509</v>
       </c>
       <c r="L22" t="n">
-        <v>89.97466062334649</v>
+        <v>415.4773502487054</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>92.60997078835715</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>309.2743447787044</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P22" t="n">
-        <v>424.2115665691178</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q22" t="n">
-        <v>220.5677709677748</v>
+        <v>50.67607918562089</v>
       </c>
       <c r="R22" t="n">
-        <v>6.007722421746777</v>
+        <v>6.007722421746788</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36369,13 +36369,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>205.1309990607778</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
@@ -36536,7 +36536,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36755,25 +36755,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572665</v>
+        <v>202.7781168554916</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>304.5047560030949</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320033</v>
+        <v>181.7959026561161</v>
       </c>
       <c r="Q31" t="n">
-        <v>227.2024143463636</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37092,7 +37092,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37153,13 +37153,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>194.3982176018703</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>271.8556808637106</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37466,25 +37466,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447059</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>383.6017480903499</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37703,13 +37703,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>281.852445040951</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
         <v>575.5128433954892</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37943,7 +37943,7 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619341</v>
@@ -37952,13 +37952,13 @@
         <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>227.2024143463632</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38022,7 +38022,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,10 +38034,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>260.4234789221546</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
